--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\DESCARTAR\pyass\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>ANILLO CARACOL</t>
   </si>
@@ -108,10 +108,19 @@
     <t>stock</t>
   </si>
   <si>
-    <t>cat.1</t>
-  </si>
-  <si>
-    <t>cat.2</t>
+    <t>cat1</t>
+  </si>
+  <si>
+    <t>cat2</t>
+  </si>
+  <si>
+    <t>paginaPrincipal</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H10" sqref="H10:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -415,7 +424,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -437,8 +446,11 @@
       <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,8 +473,11 @@
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -486,8 +501,11 @@
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A23" si="1">+A3+1</f>
         <v>3</v>
@@ -511,8 +529,11 @@
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -536,8 +557,11 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -561,8 +585,11 @@
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -586,8 +613,11 @@
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -611,8 +641,11 @@
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -636,8 +669,11 @@
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -661,8 +697,11 @@
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -686,8 +725,11 @@
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -711,8 +753,11 @@
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -736,8 +781,11 @@
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -761,8 +809,11 @@
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -786,8 +837,11 @@
       <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -811,8 +865,11 @@
       <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -836,8 +893,11 @@
       <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -861,8 +921,11 @@
       <c r="G18" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -886,8 +949,11 @@
       <c r="G19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -911,8 +977,11 @@
       <c r="G20" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -936,8 +1005,11 @@
       <c r="G21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -961,8 +1033,11 @@
       <c r="G22" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -985,6 +1060,9 @@
       </c>
       <c r="G23" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="72">
   <si>
     <t>ANILLO CARACOL</t>
   </si>
@@ -121,6 +121,120 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>oferta</t>
+  </si>
+  <si>
+    <t>DIJE MANZANITAS</t>
+  </si>
+  <si>
+    <t>DIJE ARBOL</t>
+  </si>
+  <si>
+    <t>DIJE CORAZON</t>
+  </si>
+  <si>
+    <t>DIJE CORONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIJE MANO </t>
+  </si>
+  <si>
+    <t>DIJE MARIPOSA</t>
+  </si>
+  <si>
+    <t>DIJE PLANETA</t>
+  </si>
+  <si>
+    <t>DIJE TREBOL</t>
+  </si>
+  <si>
+    <t>DIJE</t>
+  </si>
+  <si>
+    <t>DIJE ATRAPASUEÑO</t>
+  </si>
+  <si>
+    <t>DIJE BOCA</t>
+  </si>
+  <si>
+    <t>DIJE DELFIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIJE DINERO </t>
+  </si>
+  <si>
+    <t>DIJE ESCULAPIO</t>
+  </si>
+  <si>
+    <t>DIJE CON ESMERALDA</t>
+  </si>
+  <si>
+    <t>DIJE ESPADA</t>
+  </si>
+  <si>
+    <t>DIJE ALA</t>
+  </si>
+  <si>
+    <t>DIJE BUHO</t>
+  </si>
+  <si>
+    <t>DIJE CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIJE INFINITO </t>
+  </si>
+  <si>
+    <t>DIJE MARGARITA</t>
+  </si>
+  <si>
+    <t>DIJE MEDALLA MILITAR</t>
+  </si>
+  <si>
+    <t>PULSERA BOLITAS</t>
+  </si>
+  <si>
+    <t>PULSRA CON DIJES</t>
+  </si>
+  <si>
+    <t>PULSERA CON FLOR</t>
+  </si>
+  <si>
+    <t>PULSRA IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>PULSERA INFINITO</t>
+  </si>
+  <si>
+    <t>PULSERA ESCLAVA</t>
+  </si>
+  <si>
+    <t>PULSERAS</t>
+  </si>
+  <si>
+    <t>PULSERA IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>PULSERA CLAPTON</t>
+  </si>
+  <si>
+    <t>CORONA CON CIERRE</t>
+  </si>
+  <si>
+    <t>PULSERA FIGARO</t>
+  </si>
+  <si>
+    <t>PULSERA GRUME</t>
+  </si>
+  <si>
+    <t>PULSERA MALLA</t>
+  </si>
+  <si>
+    <t>PULSERA SOGA</t>
+  </si>
+  <si>
+    <t>PULSERA VENECIANA</t>
   </si>
 </sst>
 </file>
@@ -130,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,6 +278,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -195,6 +316,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,18 +536,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H23"/>
+      <selection activeCell="H10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="5"/>
+    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -449,8 +574,11 @@
       <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,7 +589,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D23" si="0">C2*1.5</f>
+        <f t="shared" ref="D2:D62" si="0">C2*1.5</f>
         <v>1500</v>
       </c>
       <c r="E2">
@@ -476,8 +604,11 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -501,13 +632,16 @@
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A23" si="1">+A3+1</f>
+        <f t="shared" ref="A4:A62" si="1">+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -529,11 +663,14 @@
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -557,11 +694,14 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -585,11 +725,14 @@
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -613,11 +756,14 @@
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -641,11 +787,14 @@
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -669,26 +818,29 @@
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>500</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -697,26 +849,29 @@
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="3">
         <v>600</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -725,11 +880,14 @@
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -756,8 +914,11 @@
       <c r="H12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -784,8 +945,11 @@
       <c r="H13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -812,8 +976,11 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -840,8 +1007,11 @@
       <c r="H15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -868,8 +1038,11 @@
       <c r="H16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -896,8 +1069,11 @@
       <c r="H17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -924,8 +1100,11 @@
       <c r="H18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -949,11 +1128,14 @@
       <c r="G19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -977,11 +1159,14 @@
       <c r="G20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1008,8 +1193,11 @@
       <c r="H21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1036,8 +1224,11 @@
       <c r="H22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1064,6 +1255,1221 @@
       <c r="H23" t="s">
         <v>33</v>
       </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3">
+        <v>600</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>700</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3">
+        <v>800</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3">
+        <v>600</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3">
+        <v>700</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3">
+        <v>800</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>700</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3">
+        <v>800</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>9750</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="0"/>
+        <v>10500</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="0"/>
+        <v>10500</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="0"/>
+        <v>9750</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="0"/>
+        <v>9750</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="3">
+        <v>800</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="3">
+        <v>900</v>
+      </c>
+      <c r="D50" s="9">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="3">
+        <v>900</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="3">
+        <v>800</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6800</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D62" s="9">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="76">
   <si>
     <t>ANILLO CARACOL</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>PULSERA VENECIANA</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zqy1uOeZTzrA06G5CsygzvGCisGXUf9T/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lUQhmUM5Lke96aQ6ZTvC-IYa7jS3YtsU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PF-rIZEGgtRrKU6153O1AGMQwneDO1Ds/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -536,10 +548,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="A10:XFD11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -549,7 +561,7 @@
     <col min="3" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -577,8 +589,11 @@
       <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -607,8 +622,11 @@
       <c r="I2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J2" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -638,8 +656,11 @@
       <c r="I3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A62" si="1">+A3+1</f>
         <v>3</v>
@@ -669,8 +690,11 @@
       <c r="I4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -701,7 +725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -732,7 +756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -763,7 +787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -794,7 +818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -825,7 +849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -856,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -887,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -918,7 +942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -949,7 +973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -980,7 +1004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1011,7 +1035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>

--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="74">
   <si>
     <t>ANILLO CARACOL</t>
   </si>
@@ -240,13 +240,7 @@
     <t>img</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1zqy1uOeZTzrA06G5CsygzvGCisGXUf9T/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lUQhmUM5Lke96aQ6ZTvC-IYa7jS3YtsU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1PF-rIZEGgtRrKU6153O1AGMQwneDO1Ds/view?usp=sharing</t>
+    <t>./assets/img/pulseras/acero/pulsera-acero-bolitas-210x210.jpg</t>
   </si>
 </sst>
 </file>
@@ -548,20 +542,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="5"/>
+    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="5" customWidth="1"/>
     <col min="3" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -593,7 +587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -622,11 +616,12 @@
       <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -656,11 +651,11 @@
       <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A62" si="1">+A3+1</f>
         <v>3</v>
@@ -690,11 +685,11 @@
       <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -724,8 +719,11 @@
       <c r="I5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -755,8 +753,11 @@
       <c r="I6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J6" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -786,8 +787,11 @@
       <c r="I7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -817,8 +821,11 @@
       <c r="I8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -848,8 +855,11 @@
       <c r="I9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -879,8 +889,11 @@
       <c r="I10" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -910,8 +923,11 @@
       <c r="I11" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -941,8 +957,11 @@
       <c r="I12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -972,8 +991,11 @@
       <c r="I13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1003,8 +1025,11 @@
       <c r="I14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1034,8 +1059,11 @@
       <c r="I15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1065,8 +1093,11 @@
       <c r="I16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1096,8 +1127,11 @@
       <c r="I17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1127,8 +1161,11 @@
       <c r="I18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1158,8 +1195,11 @@
       <c r="I19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1189,8 +1229,11 @@
       <c r="I20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1220,8 +1263,11 @@
       <c r="I21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1251,8 +1297,11 @@
       <c r="I22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1282,8 +1331,11 @@
       <c r="I23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1313,8 +1365,11 @@
       <c r="I24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1344,8 +1399,11 @@
       <c r="I25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1375,8 +1433,11 @@
       <c r="I26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1406,8 +1467,11 @@
       <c r="I27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1437,8 +1501,11 @@
       <c r="I28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1468,8 +1535,11 @@
       <c r="I29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1499,8 +1569,11 @@
       <c r="I30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1530,8 +1603,11 @@
       <c r="I31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1561,8 +1637,11 @@
       <c r="I32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1592,8 +1671,11 @@
       <c r="I33" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1623,8 +1705,11 @@
       <c r="I34" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1654,8 +1739,11 @@
       <c r="I35" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1685,8 +1773,11 @@
       <c r="I36" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1716,8 +1807,11 @@
       <c r="I37" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1747,8 +1841,11 @@
       <c r="I38" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1778,8 +1875,11 @@
       <c r="I39" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1809,8 +1909,11 @@
       <c r="I40" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1840,8 +1943,11 @@
       <c r="I41" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1871,8 +1977,11 @@
       <c r="I42" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1902,8 +2011,11 @@
       <c r="I43" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1933,8 +2045,11 @@
       <c r="I44" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1964,8 +2079,11 @@
       <c r="I45" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1995,8 +2113,11 @@
       <c r="I46" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2026,8 +2147,11 @@
       <c r="I47" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2057,8 +2181,11 @@
       <c r="I48" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2088,8 +2215,11 @@
       <c r="I49" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2119,8 +2249,11 @@
       <c r="I50" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2150,8 +2283,11 @@
       <c r="I51" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2181,8 +2317,11 @@
       <c r="I52" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2212,8 +2351,11 @@
       <c r="I53" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2243,8 +2385,11 @@
       <c r="I54" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2274,8 +2419,11 @@
       <c r="I55" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2305,8 +2453,11 @@
       <c r="I56" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2336,8 +2487,11 @@
       <c r="I57" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2367,8 +2521,11 @@
       <c r="I58" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2398,8 +2555,11 @@
       <c r="I59" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2429,8 +2589,11 @@
       <c r="I60" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2460,8 +2623,11 @@
       <c r="I61" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2491,8 +2657,11 @@
       <c r="I62" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" s="10"/>
     </row>
   </sheetData>

--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -240,7 +240,7 @@
     <t>img</t>
   </si>
   <si>
-    <t>./assets/img/pulseras/acero/pulsera-acero-bolitas-210x210.jpg</t>
+    <t>./assets/img/anillo/plata/anillo-plata.jpg</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="129">
   <si>
     <t>ANILLO CARACOL</t>
   </si>
@@ -189,9 +189,6 @@
     <t>DIJE MARGARITA</t>
   </si>
   <si>
-    <t>DIJE MEDALLA MILITAR</t>
-  </si>
-  <si>
     <t>PULSERA BOLITAS</t>
   </si>
   <si>
@@ -240,7 +237,175 @@
     <t>img</t>
   </si>
   <si>
-    <t>./assets/img/anillo/plata/anillo-plata.jpg</t>
+    <t>./assets/img/anillo/plata/anillo-plata-caracol.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/plata/anillo-plata-argentina.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/plata/anillo-plata-con-piedra.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/plata/anillo-plata-con-rulo.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/plata/anillo-plata-infinita-con-piedras.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/plata/anillo-plata-piedra-rosa.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/plata/anillo-plata-rockero.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/plata/anillo-plata-sello-hombre</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/acero/anillo-acero-con-brillantes.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/acero/anillo-acero-corazon.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/anillo/acero/anillo-acero-buho.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/acero/anillo-acero-corazones-colores.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/acero/anillo-acero-doble-v.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/acero/anillo-acero-famila.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/acero/anillo-acero-sello.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/acero/anillo-acero-triple-v.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/oro/anillo-oro-18-kilates.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/oro/anillo-oro-amarillo-calado.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/oro/anillo-oro-corazon.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/oro/anillo-oro-medio-sin-fin.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/anillo/oro/anillo-oro-v-cristal.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-manzanitas.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-arbol.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-corazon.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-corona.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-mano.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-mariposa.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-planeta.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/acero/dije-acero-trebol.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-atrapa-sueño.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-boca.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-corazon.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-delfin.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-dinero.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-esculapio.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-con-esmeralda.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/oro/dije-oro-mariposa.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-ala.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-arbol.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-buho.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-corazon.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-cruz.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-infinito.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/dijes/plata/dije-plata-margarita.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/acero/pulsera-acero-con-dijes.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/acero/pulsera-acero-con-flor.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/acero/pulsera-acero-identificacion.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/acero/pulsera-acero-infinito.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/acero/pulsera-acero-esclava .jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/oro-pulsera-oro-identificacion.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-clapton.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-cierre-marinero.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-fijago-3x1.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-grume.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-malla.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-soga.jpg</t>
+  </si>
+  <si>
+    <t>./assets/img/pulseras/plata/pulsera-plata-veneciana.jpg</t>
   </si>
 </sst>
 </file>
@@ -542,10 +707,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,7 +749,7 @@
         <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -598,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D62" si="0">C2*1.5</f>
+        <f t="shared" ref="D2:D61" si="0">C2*1.5</f>
         <v>1500</v>
       </c>
       <c r="E2">
@@ -617,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -657,7 +822,7 @@
     </row>
     <row r="4" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A62" si="1">+A3+1</f>
+        <f t="shared" ref="A4:A61" si="1">+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -686,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -720,7 +885,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -754,7 +919,7 @@
         <v>33</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -788,7 +953,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -822,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -850,13 +1015,13 @@
         <v>9</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -884,13 +1049,13 @@
         <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -918,13 +1083,13 @@
         <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -957,9 +1122,7 @@
       <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -992,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1019,14 +1182,14 @@
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
-        <v>33</v>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I14" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1060,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1094,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1291,7 @@
         <v>33</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1325,7 @@
         <v>33</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1196,7 +1359,7 @@
         <v>33</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,7 +1393,7 @@
         <v>33</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1264,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1298,7 +1461,7 @@
         <v>33</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1332,7 +1495,7 @@
         <v>33</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1366,7 +1529,7 @@
         <v>33</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1400,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1434,7 +1597,7 @@
         <v>33</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1468,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1665,7 @@
         <v>33</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1536,7 +1699,7 @@
         <v>33</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1604,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1638,7 +1801,7 @@
         <v>33</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1672,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,7 +1903,7 @@
         <v>33</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1774,7 +1937,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1808,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1842,7 +2005,7 @@
         <v>33</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,7 +2073,7 @@
         <v>33</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1944,7 +2107,7 @@
         <v>33</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1978,7 +2141,7 @@
         <v>33</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2012,7 +2175,7 @@
         <v>33</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2046,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,7 +2243,7 @@
         <v>33</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,7 +2277,7 @@
         <v>33</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,7 +2311,7 @@
         <v>33</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,30 +2323,28 @@
         <v>56</v>
       </c>
       <c r="C48" s="3">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="0"/>
-        <v>5250</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -2194,17 +2355,17 @@
         <v>57</v>
       </c>
       <c r="C49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>18</v>
@@ -2216,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2228,29 +2389,29 @@
         <v>58</v>
       </c>
       <c r="C50" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2272,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>18</v>
@@ -2284,7 +2445,7 @@
         <v>33</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2296,17 +2457,17 @@
         <v>60</v>
       </c>
       <c r="C52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>18</v>
@@ -2318,7 +2479,7 @@
         <v>33</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2330,17 +2491,17 @@
         <v>61</v>
       </c>
       <c r="C53" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>18</v>
@@ -2352,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2361,32 +2522,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="3">
-        <v>800</v>
-      </c>
-      <c r="D54" s="9">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G54" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,20 +2559,20 @@
         <v>64</v>
       </c>
       <c r="C55" s="3">
-        <v>6800</v>
+        <v>3200</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>4800</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>32</v>
@@ -2420,7 +2581,7 @@
         <v>33</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2432,17 +2593,17 @@
         <v>65</v>
       </c>
       <c r="C56" s="3">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>5700</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>9</v>
@@ -2454,7 +2615,7 @@
         <v>33</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2466,29 +2627,29 @@
         <v>66</v>
       </c>
       <c r="C57" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="0"/>
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,17 +2661,17 @@
         <v>67</v>
       </c>
       <c r="C58" s="3">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="5">
         <v>1</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>9</v>
@@ -2522,7 +2683,7 @@
         <v>33</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2534,17 +2695,17 @@
         <v>68</v>
       </c>
       <c r="C59" s="3">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>5700</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>9</v>
@@ -2556,7 +2717,7 @@
         <v>33</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,17 +2729,17 @@
         <v>69</v>
       </c>
       <c r="C60" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="0"/>
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>9</v>
@@ -2590,7 +2751,7 @@
         <v>33</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2612,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>9</v>
@@ -2624,45 +2785,11 @@
         <v>33</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D62" s="9">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="10"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRODUCTOS.xlsx
+++ b/PRODUCTOS.xlsx
@@ -234,9 +234,6 @@
     <t>PULSERA VENECIANA</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>./assets/img/anillo/plata/anillo-plata-caracol.jpg</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>./assets/img/pulseras/plata/pulsera-plata-veneciana.jpg</t>
+  </si>
+  <si>
+    <t>imagen</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
         <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -817,7 +817,7 @@
         <v>33</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>33</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1155,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>33</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>33</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>33</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>33</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>33</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,7 +1461,7 @@
         <v>33</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1495,7 +1495,7 @@
         <v>33</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
         <v>33</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1597,7 +1597,7 @@
         <v>33</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1665,7 +1665,7 @@
         <v>33</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>33</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1801,7 +1801,7 @@
         <v>33</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1869,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>33</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>33</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
         <v>33</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2107,7 +2107,7 @@
         <v>33</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>33</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>33</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
         <v>33</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
         <v>33</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2311,7 +2311,7 @@
         <v>33</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2411,7 +2411,7 @@
         <v>33</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2445,7 +2445,7 @@
         <v>33</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>33</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2513,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2547,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2581,7 +2581,7 @@
         <v>33</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2615,7 +2615,7 @@
         <v>33</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,7 +2649,7 @@
         <v>33</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2683,7 @@
         <v>33</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2717,7 +2717,7 @@
         <v>33</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2751,7 +2751,7 @@
         <v>33</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2785,7 +2785,7 @@
         <v>33</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
